--- a/resultats_nouveaux_points_fs.xlsx
+++ b/resultats_nouveaux_points_fs.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6d2936775fb277a/Documents/GitHub/piano_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="183" documentId="11_2B59D2BFD3C0DF8A188BC031463088B35299F5C1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51FA6CB6-DC42-45DE-8E19-49FA7A1C99BF}"/>
+  <xr:revisionPtr revIDLastSave="193" documentId="11_2B59D2BFD3C0DF8A188BC031463088B35299F5C1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{622FE740-6407-4604-A3CE-9FC6383B209F}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1920" yWindow="730" windowWidth="8860" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -196,14 +196,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -870,6 +869,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="430088047"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -938,62 +938,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-CA"/>
-              <a:t>Résolution et contraste en fonction de la fréquence d'échantillonage</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1011,7 +956,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -1024,6 +969,135 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$D$30:$D$44</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="15"/>
+                  <c:pt idx="0">
+                    <c:v>7.6610584988890014E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.4996869137306307E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.6749840720985718E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.133295431458334E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.6313207655120214E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.2182868776890373E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.1066119976873825E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>5.9968022980874073E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>9.2217800633057913E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>6.4752401607145343E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>6.9639547708615546E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>9.4725521388960778E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$D$30:$D$44</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="15"/>
+                  <c:pt idx="0">
+                    <c:v>7.6610584988890014E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.4996869137306307E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.6749840720985718E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.133295431458334E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.6313207655120214E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.2182868776890373E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.1066119976873825E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>5.9968022980874073E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>9.2217800633057913E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>6.4752401607145343E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>6.9639547708615546E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>9.4725521388960778E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$B$30:$B$55</c:f>
@@ -1195,7 +1269,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -1208,6 +1282,135 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$G$30:$G$44</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="15"/>
+                  <c:pt idx="0">
+                    <c:v>1.537968430353851E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.2675084349557739E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.4607309680318059E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.6838670104618691E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.9818778251868061E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.2630246255090719E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.3187689188062979E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>9.5481807246882849E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1.694568512379338E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1.555131577363632E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>3.885287731285221E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3.2052508399887943E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$G$30:$G$44</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="15"/>
+                  <c:pt idx="0">
+                    <c:v>1.537968430353851E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.2675084349557739E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.4607309680318059E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.6838670104618691E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.9818778251868061E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.2630246255090719E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.3187689188062979E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>9.5481807246882849E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1.694568512379338E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1.555131577363632E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>3.885287731285221E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3.2052508399887943E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$B$30:$B$55</c:f>
@@ -2924,8 +3127,8 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>597477</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>163326</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>119456</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
@@ -3015,6 +3218,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3304,8 +3511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F29" zoomScale="101" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView tabSelected="1" topLeftCell="G33" zoomScale="142" workbookViewId="0">
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3386,7 +3593,7 @@
         <v>1.302584211989037</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E9" si="1">D4/2</f>
+        <f t="shared" ref="E4:E7" si="1">D4/2</f>
         <v>0.65129210599451848</v>
       </c>
       <c r="F4" s="2">
@@ -3533,7 +3740,7 @@
         <v>1.216298095357454</v>
       </c>
       <c r="E11">
-        <f t="shared" ref="E11:E23" si="2">D11/2</f>
+        <f t="shared" ref="E11:E17" si="2">D11/2</f>
         <v>0.60814904767872702</v>
       </c>
       <c r="F11">
@@ -3680,7 +3887,7 @@
         <v>6.6545821290265099</v>
       </c>
       <c r="E18" s="3">
-        <f>D18/2</f>
+        <f t="shared" ref="E18:E27" si="3">D18/2</f>
         <v>3.327291064513255</v>
       </c>
       <c r="F18" s="2">
@@ -3701,7 +3908,7 @@
         <v>2.749110833542705</v>
       </c>
       <c r="E19" s="3">
-        <f>D19/2</f>
+        <f t="shared" si="3"/>
         <v>1.3745554167713525</v>
       </c>
       <c r="F19" s="3">
@@ -3722,7 +3929,7 @@
         <v>1.1895440662751591</v>
       </c>
       <c r="E20">
-        <f>D20/2</f>
+        <f t="shared" si="3"/>
         <v>0.59477203313757954</v>
       </c>
       <c r="F20">
@@ -3743,7 +3950,7 @@
         <v>2.3118089994711211</v>
       </c>
       <c r="E21" s="3">
-        <f>D21/2</f>
+        <f t="shared" si="3"/>
         <v>1.1559044997355605</v>
       </c>
       <c r="F21" s="2">
@@ -3764,7 +3971,7 @@
         <v>1.147588753820852</v>
       </c>
       <c r="E22" s="2">
-        <f>D22/2</f>
+        <f t="shared" si="3"/>
         <v>0.57379437691042601</v>
       </c>
       <c r="F22" s="3">
@@ -3785,7 +3992,7 @@
         <v>-0.30285573135339078</v>
       </c>
       <c r="E23" s="3">
-        <f>D23/2</f>
+        <f t="shared" si="3"/>
         <v>-0.15142786567669539</v>
       </c>
       <c r="F23" s="2">
@@ -3806,7 +4013,7 @@
         <v>0.93216769740163774</v>
       </c>
       <c r="E24">
-        <f>D24/2</f>
+        <f t="shared" si="3"/>
         <v>0.46608384870081887</v>
       </c>
       <c r="F24">
@@ -3827,7 +4034,7 @@
         <v>-1.1912580027058131</v>
       </c>
       <c r="E25" s="3">
-        <f>D25/2</f>
+        <f t="shared" si="3"/>
         <v>-0.59562900135290653</v>
       </c>
       <c r="F25" s="2">
@@ -3848,7 +4055,7 @@
         <v>-0.97829003611107779</v>
       </c>
       <c r="E26" s="3">
-        <f>D26/2</f>
+        <f t="shared" si="3"/>
         <v>-0.48914501805553889</v>
       </c>
       <c r="F26" s="3">
@@ -3869,7 +4076,7 @@
         <v>-0.43730827156011992</v>
       </c>
       <c r="E27" s="3">
-        <f>D27/2</f>
+        <f t="shared" si="3"/>
         <v>-0.21865413578005996</v>
       </c>
       <c r="F27" s="2">
@@ -3900,7 +4107,7 @@
       <c r="A30" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30">
         <v>44100</v>
       </c>
       <c r="C30">
@@ -3913,7 +4120,7 @@
         <v>1.248192115572673</v>
       </c>
       <c r="F30">
-        <f t="shared" ref="F30" si="3">E30/2</f>
+        <f t="shared" ref="F30" si="4">E30/2</f>
         <v>0.62409605778633648</v>
       </c>
       <c r="G30">
@@ -3924,7 +4131,7 @@
       <c r="A31" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31">
         <v>8820</v>
       </c>
       <c r="C31">
@@ -3948,7 +4155,7 @@
       <c r="A32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32">
         <v>4410</v>
       </c>
       <c r="C32" s="3"/>
@@ -3961,7 +4168,7 @@
       <c r="A33" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33">
         <v>2940</v>
       </c>
       <c r="C33">
@@ -3974,7 +4181,7 @@
         <v>1.395513148590223</v>
       </c>
       <c r="F33">
-        <f t="shared" ref="F33:F35" si="4">E33/2</f>
+        <f t="shared" ref="F33:F35" si="5">E33/2</f>
         <v>0.69775657429511151</v>
       </c>
       <c r="G33">
@@ -3985,7 +4192,7 @@
       <c r="A34" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34">
         <v>2205</v>
       </c>
       <c r="C34">
@@ -3998,7 +4205,7 @@
         <v>1.204840147639979</v>
       </c>
       <c r="F34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.60242007381998952</v>
       </c>
       <c r="G34">
@@ -4009,7 +4216,7 @@
       <c r="A35" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35">
         <v>1764</v>
       </c>
       <c r="C35">
@@ -4022,7 +4229,7 @@
         <v>1.3237327313329801</v>
       </c>
       <c r="F35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.66186636566649004</v>
       </c>
       <c r="G35">
@@ -4033,7 +4240,7 @@
       <c r="A36" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36">
         <v>1470</v>
       </c>
       <c r="C36">
@@ -4057,7 +4264,7 @@
       <c r="A37" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37">
         <v>1378</v>
       </c>
       <c r="C37">
@@ -4081,7 +4288,7 @@
       <c r="A38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38">
         <v>1260</v>
       </c>
       <c r="C38" s="3"/>
@@ -4094,7 +4301,7 @@
       <c r="A39" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39">
         <v>1002</v>
       </c>
       <c r="C39">
@@ -4107,7 +4314,7 @@
         <v>1.216298095357454</v>
       </c>
       <c r="F39">
-        <f t="shared" ref="F39:F44" si="5">E39/2</f>
+        <f t="shared" ref="F39:F44" si="6">E39/2</f>
         <v>0.60814904767872702</v>
       </c>
       <c r="G39">
@@ -4118,7 +4325,7 @@
       <c r="A40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40">
         <v>882</v>
       </c>
       <c r="C40" s="2"/>
@@ -4131,7 +4338,7 @@
       <c r="A41" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41">
         <v>630</v>
       </c>
       <c r="C41">
@@ -4144,7 +4351,7 @@
         <v>1.368796757650758</v>
       </c>
       <c r="F41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.68439837882537902</v>
       </c>
       <c r="G41">
@@ -4155,7 +4362,7 @@
       <c r="A42" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42">
         <v>441</v>
       </c>
       <c r="C42">
@@ -4168,7 +4375,7 @@
         <v>0.99082265607448805</v>
       </c>
       <c r="F42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.49541132803724403</v>
       </c>
       <c r="G42">
@@ -4179,7 +4386,7 @@
       <c r="A43" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43">
         <v>386</v>
       </c>
       <c r="C43">
@@ -4192,7 +4399,7 @@
         <v>0.89077868945655536</v>
       </c>
       <c r="F43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.44538934472827768</v>
       </c>
       <c r="G43">
@@ -4203,7 +4410,7 @@
       <c r="A44" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44">
         <v>352</v>
       </c>
       <c r="C44">
@@ -4216,7 +4423,7 @@
         <v>1.141508860327862</v>
       </c>
       <c r="F44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.57075443016393101</v>
       </c>
       <c r="G44">
@@ -4227,7 +4434,7 @@
       <c r="A45" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45">
         <v>324</v>
       </c>
       <c r="C45" s="2"/>
@@ -4240,7 +4447,7 @@
       <c r="A46" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46">
         <v>294</v>
       </c>
       <c r="C46" s="2"/>
@@ -4253,7 +4460,7 @@
       <c r="A47" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47">
         <v>252</v>
       </c>
       <c r="C47" s="3"/>
@@ -4266,7 +4473,7 @@
       <c r="A48" t="s">
         <v>19</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48">
         <v>220</v>
       </c>
       <c r="C48">
@@ -4290,7 +4497,7 @@
       <c r="A49" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49">
         <v>176</v>
       </c>
       <c r="C49" s="2"/>
@@ -4303,7 +4510,7 @@
       <c r="A50" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50">
         <v>126</v>
       </c>
       <c r="C50" s="3"/>
@@ -4316,7 +4523,7 @@
       <c r="A51" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51">
         <v>110</v>
       </c>
       <c r="C51" s="2"/>
@@ -4329,7 +4536,7 @@
       <c r="A52" t="s">
         <v>22</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52">
         <v>88</v>
       </c>
       <c r="C52">
@@ -4353,7 +4560,7 @@
       <c r="A53" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53">
         <v>73</v>
       </c>
       <c r="C53" s="2"/>
@@ -4366,7 +4573,7 @@
       <c r="A54" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54">
         <v>58</v>
       </c>
       <c r="C54" s="2"/>
@@ -4379,7 +4586,7 @@
       <c r="A55" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55">
         <v>44</v>
       </c>
       <c r="C55" s="2"/>
